--- a/biology/Zoologie/Crabe_rouge_de_Clipperton/Crabe_rouge_de_Clipperton.xlsx
+++ b/biology/Zoologie/Crabe_rouge_de_Clipperton/Crabe_rouge_de_Clipperton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johngarthia oceanica
-Le crabe rouge de Clipperton, Johngarthia oceanica[1], est une espèce de crabes du genre Johngarthia (en) vivant sur l'île Clipperton[2], dans l'océan Pacifique, au large du Mexique, mais aussi sur l'île de Malpelo, au large de la Colombie et dans les îles Revillagigedo, notamment sur l'île Socorro, à 900 km au nord de Clipperton. Il fait une dizaine de centimètres de large et se nourrit d'algues, de feuilles de cocotier et, parfois, de charognes.
-Avant 2019, Johngarthia oceanica était considéré comme faisant partie de Johngarthia planata, mais un réexamen a déterminé que les crabes terrestres des îles océaniques étaient une espèce distincte. Johngarthia oceanica diffère de Johngarthia planata par la forme du lobe mésial de la marge infra-orbitaire et la couleur de sa carapace[1].
+Le crabe rouge de Clipperton, Johngarthia oceanica, est une espèce de crabes du genre Johngarthia (en) vivant sur l'île Clipperton, dans l'océan Pacifique, au large du Mexique, mais aussi sur l'île de Malpelo, au large de la Colombie et dans les îles Revillagigedo, notamment sur l'île Socorro, à 900 km au nord de Clipperton. Il fait une dizaine de centimètres de large et se nourrit d'algues, de feuilles de cocotier et, parfois, de charognes.
+Avant 2019, Johngarthia oceanica était considéré comme faisant partie de Johngarthia planata, mais un réexamen a déterminé que les crabes terrestres des îles océaniques étaient une espèce distincte. Johngarthia oceanica diffère de Johngarthia planata par la forme du lobe mésial de la marge infra-orbitaire et la couleur de sa carapace.
 </t>
         </is>
       </c>
